--- a/AltiumProject/Project Outputs/7404337-03_CD/ASSY/Bill of Materials-7404337_RZ_G2(7404337-03_CD).xlsx
+++ b/AltiumProject/Project Outputs/7404337-03_CD/ASSY/Bill of Materials-7404337_RZ_G2(7404337-03_CD).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmeagher\Documents\Projects\RomeoZeroGenII\7404337_RZ_G2\Project Outputs\7404337-03_CD\ASSY\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmeagher\Documents\Projects\RomeoZeroGenII\7404337_RZ_G2_HW\AltiumProject\Project Outputs\7404337-03_CD\ASSY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4D255A41-03C3-4BF8-B2CD-600A2AD66E71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB7EF957-C7EE-472A-80A9-32427D3E6142}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5265" yWindow="1500" windowWidth="18900" windowHeight="11055" xr2:uid="{089A88C9-8FD8-4D68-BF7F-79076DBCC4CD}"/>
+    <workbookView xWindow="2400" yWindow="2175" windowWidth="17280" windowHeight="10050" xr2:uid="{9E09C3AC-72ED-40DB-829E-0C5B0845318A}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-7404337_RZ_G2" sheetId="1" r:id="rId1"/>
@@ -723,7 +723,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9763E212-9E94-4A1D-A503-4F9995267B9C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40530598-C247-4862-82BE-E4997F81B5C3}">
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
